--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R370b265da5bd47db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R4f8ad42f3a6c446d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc96785f4b1af4a0f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47c2d190cf364640"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R83aa191ee1324ce5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a25438023554249"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R4f8ad42f3a6c446d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Re223b504efe84408"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47c2d190cf364640"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25a284b40fe04de8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a25438023554249"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f7906f557114d3f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Re223b504efe84408"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R0035f97b83e6405d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25a284b40fe04de8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19b094580e5f4220"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f7906f557114d3f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bcd21bd6edf4a1b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R0035f97b83e6405d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7ca9537df53a48b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19b094580e5f4220"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f0e4af9a5424727"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bcd21bd6edf4a1b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R692c5ed54ef54d4a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R7ca9537df53a48b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R962ee44935494e70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f0e4af9a5424727"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R10ce006629874220"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R692c5ed54ef54d4a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R254e15eb8d8e473d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R962ee44935494e70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R9e39b05e70a24115"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R10ce006629874220"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5d23cfe63a54d66"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R254e15eb8d8e473d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ee7a47c5b234d2b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R9e39b05e70a24115"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Raf0a2fae129c49c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5d23cfe63a54d66"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea6da36d29374cf6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ee7a47c5b234d2b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0cb97572d85e4e0e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Raf0a2fae129c49c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6944d9cc6f2a4b8a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rea6da36d29374cf6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbbe224936621473c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0cb97572d85e4e0e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R36d2db14241d4144"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6944d9cc6f2a4b8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rb6f88cb6d6ee461e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbbe224936621473c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R485544903f9e41af"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R36d2db14241d4144"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra6abe950df2b4925"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rb6f88cb6d6ee461e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6db27d8b010d4a54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R485544903f9e41af"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b8a491dee0b4cfc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra6abe950df2b4925"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fe158e38d5b41e5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R6db27d8b010d4a54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R5ddcd33d2b7f44ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5b8a491dee0b4cfc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0f1384ee5d846a8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fe158e38d5b41e5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5ae9856828e44acc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="R5ddcd33d2b7f44ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rf7018b8f4f924873"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0f1384ee5d846a8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ef5b68ed5624a24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5ae9856828e44acc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42d9222fe81a4dbb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/043_PieChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rf7018b8f4f924873"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Share" sheetId="1" r:id="Rcfcf1a9fe2ed4461"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -161,7 +161,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ef5b68ed5624a24"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R03d228b12c9849a7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -222,6 +222,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42d9222fe81a4dbb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42e105bf91de4a6f"/>
 </x:worksheet>
 </file>